--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/50TB TG102LE4G Thay Module Moi_191124.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/50TB TG102LE4G Thay Module Moi_191124.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\19.Lô 1-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA46F890-1655-46CF-A61A-50F4FC5BD13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C6271F-0C34-4EA1-A15E-94DC6E4B0F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{AF4504F1-29D6-49E1-B65C-F07DE9FE58FA}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
-    <t>007785070562593</t>
-  </si>
-  <si>
     <t>007785070558195</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>007785070545440</t>
+  </si>
+  <si>
+    <t>007785070556884</t>
   </si>
 </sst>
 </file>
@@ -595,9 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6717C913-F1B3-409F-B5A7-32BF2982A302}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A50"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -606,252 +604,252 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
